--- a/FBG_Needle_Calibration_Data/needle_1/Calibration/0 deg/12-28-19_14-45/curvature_data.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_1/Calibration/0 deg/12-28-19_14-45/curvature_data.xlsx
@@ -393,30 +393,30 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>53170.871004</v>
+        <v>53159.539004</v>
       </c>
       <c r="B3">
-        <v>-0.00046214859713</v>
+        <v>-0.00020323603936</v>
       </c>
       <c r="C3">
-        <v>-0.00037189979636</v>
+        <v>-0.00016264232922</v>
       </c>
       <c r="D3">
-        <v>-9.344704266499999e-05</v>
+        <v>-4.1993463665e-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>53202.539006</v>
+        <v>53170.871004</v>
       </c>
       <c r="B4">
-        <v>-0.0001810027468</v>
+        <v>-0.00046214859713</v>
       </c>
       <c r="C4">
-        <v>-0.00014661801321</v>
+        <v>-0.00037189979636</v>
       </c>
       <c r="D4">
-        <v>-4.4509103451e-05</v>
+        <v>-9.344704266499999e-05</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -449,30 +449,30 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>53213.807006</v>
+        <v>53202.539006</v>
       </c>
       <c r="B7">
-        <v>-3.0206228307e-05</v>
+        <v>-0.0001810027468</v>
       </c>
       <c r="C7">
-        <v>-2.4413285149e-05</v>
+        <v>-0.00014661801321</v>
       </c>
       <c r="D7">
-        <v>-7.2504026579e-06</v>
+        <v>-4.4509103451e-05</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>53159.539004</v>
+        <v>53213.807006</v>
       </c>
       <c r="B8">
-        <v>-0.00020323603936</v>
+        <v>-3.0206228307e-05</v>
       </c>
       <c r="C8">
-        <v>-0.00016264232922</v>
+        <v>-2.4413285149e-05</v>
       </c>
       <c r="D8">
-        <v>-4.1993463665e-05</v>
+        <v>-7.2504026579e-06</v>
       </c>
     </row>
   </sheetData>
